--- a/Data_EXCEL/extra/translation_training.xlsx
+++ b/Data_EXCEL/extra/translation_training.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://marunedutr-my.sharepoint.com/personal/atillagundogan_marun_edu_tr/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atilla\Documents\VSCode\EngineeringProjectII\Data_EXCEL\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{9DF538A6-AD95-4256-BA7F-BD9882B40199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF848ECF-A155-4DC4-A781-F7BF1093C0B5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D54CF46-F262-4514-AF54-1EE038A7183D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C665D98C-75CB-4ECB-A1B7-1899540DECAF}"/>
+    <workbookView xWindow="2415" yWindow="2520" windowWidth="21600" windowHeight="11505" xr2:uid="{C665D98C-75CB-4ECB-A1B7-1899540DECAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -1529,7 +1529,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1539,11 +1539,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB97149D-43ED-4150-8B3F-E3DDDD9B10C5}">
   <dimension ref="A1:ED3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DA1" workbookViewId="0">
-      <selection activeCell="DW2" sqref="DW2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="134" width="30" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:134" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/Data_EXCEL/extra/translation_training.xlsx
+++ b/Data_EXCEL/extra/translation_training.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atilla\Documents\VSCode\EngineeringProjectII\Data_EXCEL\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D54CF46-F262-4514-AF54-1EE038A7183D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046F0738-8E9D-402E-926D-38EBAD985FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="2520" windowWidth="21600" windowHeight="11505" xr2:uid="{C665D98C-75CB-4ECB-A1B7-1899540DECAF}"/>
+    <workbookView xWindow="300" yWindow="3060" windowWidth="21600" windowHeight="11505" xr2:uid="{C665D98C-75CB-4ECB-A1B7-1899540DECAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -332,9 +332,6 @@
     <t>kas ağrısı</t>
   </si>
   <si>
-    <t>ruhsal durumda değişim,kafa karışıklığı</t>
-  </si>
-  <si>
     <t>vücut üzerinde kırmızı noktalar</t>
   </si>
   <si>
@@ -416,9 +413,6 @@
     <t>iltihaplı tırnaklar</t>
   </si>
   <si>
-    <t>su toplama,kabarma</t>
-  </si>
-  <si>
     <t>burun çevresinde kırmızı yara</t>
   </si>
   <si>
@@ -695,9 +689,6 @@
     <t>gorsel_rahatsizliklar</t>
   </si>
   <si>
-    <t>kan _nakli_almak</t>
-  </si>
-  <si>
     <t>steril_olmayan_enjeksiyonlar_almak</t>
   </si>
   <si>
@@ -1136,9 +1127,6 @@
     <t>branch_tr</t>
   </si>
   <si>
-    <t xml:space="preserve">irinli sivilce çıkması, iltihaplı sivilce </t>
-  </si>
-  <si>
     <t>nefes_darligi</t>
   </si>
   <si>
@@ -1179,6 +1167,18 @@
   </si>
   <si>
     <t>su_toplama</t>
+  </si>
+  <si>
+    <t>ruhsal durumda değişim</t>
+  </si>
+  <si>
+    <t>kan_nakli_almak</t>
+  </si>
+  <si>
+    <t>iltihaplı sivilce çıkması</t>
+  </si>
+  <si>
+    <t>su toplama</t>
   </si>
 </sst>
 </file>
@@ -1539,13 +1539,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB97149D-43ED-4150-8B3F-E3DDDD9B10C5}">
   <dimension ref="A1:ED3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="DZ1" workbookViewId="0">
+      <selection activeCell="EC6" sqref="EC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="134" width="30" customWidth="1"/>
+    <col min="1" max="59" width="30" customWidth="1"/>
+    <col min="60" max="61" width="32" customWidth="1"/>
+    <col min="62" max="134" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:134" ht="15.75" x14ac:dyDescent="0.25">
@@ -1844,309 +1846,309 @@
         <v>97</v>
       </c>
       <c r="CU1" t="s">
+        <v>377</v>
+      </c>
+      <c r="CV1" t="s">
         <v>98</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>99</v>
       </c>
       <c r="CW1" t="s">
         <v>39</v>
       </c>
       <c r="CX1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CY1" t="s">
         <v>100</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CZ1" t="s">
         <v>101</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DA1" t="s">
         <v>102</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DB1" t="s">
         <v>103</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DC1" t="s">
         <v>104</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DD1" t="s">
         <v>105</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DE1" t="s">
         <v>106</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DF1" t="s">
         <v>107</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DG1" t="s">
         <v>108</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DH1" t="s">
         <v>109</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DI1" t="s">
         <v>110</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DJ1" t="s">
         <v>111</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DK1" t="s">
         <v>112</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DL1" t="s">
         <v>113</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DM1" t="s">
         <v>114</v>
-      </c>
-      <c r="DM1" t="s">
-        <v>115</v>
       </c>
       <c r="DN1" t="s">
         <v>45</v>
       </c>
       <c r="DO1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DP1" t="s">
         <v>116</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DQ1" t="s">
         <v>117</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DR1" t="s">
         <v>118</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DS1" t="s">
+        <v>379</v>
+      </c>
+      <c r="DT1" t="s">
         <v>119</v>
       </c>
-      <c r="DS1" t="s">
-        <v>366</v>
-      </c>
-      <c r="DT1" t="s">
+      <c r="DU1" t="s">
         <v>120</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DV1" t="s">
         <v>121</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DW1" t="s">
         <v>122</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DX1" t="s">
         <v>123</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DY1" t="s">
         <v>124</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="DZ1" t="s">
+        <v>380</v>
+      </c>
+      <c r="EA1" t="s">
         <v>125</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EB1" t="s">
         <v>126</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="ED1" t="s">
         <v>128</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="ED1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:134" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s">
         <v>131</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>132</v>
-      </c>
-      <c r="C2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" t="s">
-        <v>134</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" t="s">
         <v>135</v>
-      </c>
-      <c r="G2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H2" t="s">
-        <v>137</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
       </c>
       <c r="M2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>
       <c r="P2" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>141</v>
+      </c>
+      <c r="R2" t="s">
         <v>142</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>143</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>144</v>
-      </c>
-      <c r="S2" t="s">
-        <v>145</v>
-      </c>
-      <c r="T2" t="s">
-        <v>146</v>
       </c>
       <c r="U2" t="s">
         <v>20</v>
       </c>
       <c r="V2" t="s">
+        <v>145</v>
+      </c>
+      <c r="W2" t="s">
+        <v>146</v>
+      </c>
+      <c r="X2" t="s">
         <v>147</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>148</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>149</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>150</v>
       </c>
-      <c r="Z2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>152</v>
-      </c>
       <c r="AB2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AC2" t="s">
         <v>28</v>
       </c>
       <c r="AD2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF2" t="s">
         <v>153</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>154</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>155</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>156</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>157</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AL2" t="s">
         <v>158</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AM2" t="s">
         <v>159</v>
       </c>
-      <c r="AK2" t="s">
-        <v>368</v>
-      </c>
-      <c r="AL2" t="s">
+      <c r="AN2" t="s">
         <v>160</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>162</v>
       </c>
       <c r="AO2" t="s">
         <v>40</v>
       </c>
       <c r="AP2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR2" t="s">
         <v>163</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AS2" t="s">
         <v>164</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AT2" t="s">
         <v>165</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AU2" t="s">
         <v>166</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AV2" t="s">
         <v>167</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>169</v>
       </c>
       <c r="AW2" t="s">
         <v>48</v>
       </c>
       <c r="AX2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AY2" t="s">
         <v>50</v>
       </c>
       <c r="AZ2" t="s">
+        <v>169</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>170</v>
+      </c>
+      <c r="BB2" t="s">
         <v>171</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BC2" t="s">
         <v>172</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BD2" t="s">
         <v>173</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BE2" t="s">
+        <v>365</v>
+      </c>
+      <c r="BF2" t="s">
         <v>174</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BG2" t="s">
         <v>175</v>
       </c>
-      <c r="BE2" t="s">
-        <v>369</v>
-      </c>
-      <c r="BF2" t="s">
+      <c r="BH2" t="s">
         <v>176</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BI2" t="s">
         <v>177</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BJ2" t="s">
         <v>178</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BK2" t="s">
         <v>179</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BL2" t="s">
         <v>180</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BM2" t="s">
         <v>181</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>182</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>183</v>
       </c>
       <c r="BN2" t="s">
         <v>65</v>
@@ -2158,85 +2160,85 @@
         <v>67</v>
       </c>
       <c r="BQ2" t="s">
+        <v>182</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>183</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>366</v>
+      </c>
+      <c r="BT2" t="s">
         <v>184</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BU2" t="s">
         <v>185</v>
       </c>
-      <c r="BS2" t="s">
-        <v>370</v>
-      </c>
-      <c r="BT2" t="s">
+      <c r="BV2" t="s">
         <v>186</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BW2" t="s">
         <v>187</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BX2" t="s">
         <v>188</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BY2" t="s">
         <v>189</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="BZ2" t="s">
         <v>190</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CA2" t="s">
+        <v>367</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>368</v>
+      </c>
+      <c r="CC2" t="s">
         <v>191</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CD2" t="s">
         <v>192</v>
       </c>
-      <c r="CA2" t="s">
-        <v>371</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>372</v>
-      </c>
-      <c r="CC2" t="s">
+      <c r="CE2" t="s">
         <v>193</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CF2" t="s">
         <v>194</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CG2" t="s">
         <v>195</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CH2" t="s">
         <v>196</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CI2" t="s">
         <v>197</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CJ2" t="s">
         <v>198</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CK2" t="s">
         <v>199</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CL2" t="s">
         <v>200</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CM2" t="s">
         <v>201</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CN2" t="s">
         <v>202</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CO2" t="s">
         <v>203</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CP2" t="s">
         <v>204</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="CQ2" t="s">
         <v>205</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>206</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>207</v>
       </c>
       <c r="CR2" t="s">
         <v>95</v>
@@ -2245,519 +2247,519 @@
         <v>96</v>
       </c>
       <c r="CT2" t="s">
+        <v>369</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>370</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>206</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>160</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>207</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>208</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>209</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>210</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>211</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>212</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>213</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>214</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>215</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>216</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>378</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>217</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>111</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>218</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>219</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>220</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>165</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>221</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>371</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>222</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>372</v>
+      </c>
+      <c r="DS2" t="s">
         <v>373</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="DT2" t="s">
         <v>374</v>
       </c>
-      <c r="CV2" t="s">
-        <v>208</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>162</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>209</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>210</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>211</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>212</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>213</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>214</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>215</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>216</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>217</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>218</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>219</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>220</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>221</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>222</v>
-      </c>
-      <c r="DM2" t="s">
+      <c r="DU2" t="s">
         <v>223</v>
       </c>
-      <c r="DN2" t="s">
-        <v>167</v>
-      </c>
-      <c r="DO2" t="s">
+      <c r="DV2" t="s">
         <v>224</v>
       </c>
-      <c r="DP2" t="s">
+      <c r="DW2" t="s">
         <v>375</v>
       </c>
-      <c r="DQ2" t="s">
+      <c r="DX2" t="s">
         <v>225</v>
       </c>
-      <c r="DR2" t="s">
+      <c r="DY2" t="s">
+        <v>226</v>
+      </c>
+      <c r="DZ2" t="s">
         <v>376</v>
       </c>
-      <c r="DS2" t="s">
-        <v>377</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>378</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>226</v>
-      </c>
-      <c r="DV2" t="s">
+      <c r="EA2" t="s">
         <v>227</v>
       </c>
-      <c r="DW2" t="s">
-        <v>379</v>
-      </c>
-      <c r="DX2" t="s">
+      <c r="EB2" t="s">
         <v>228</v>
       </c>
-      <c r="DY2" t="s">
+      <c r="EC2" t="s">
         <v>229</v>
       </c>
-      <c r="DZ2" t="s">
-        <v>380</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>230</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>231</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>232</v>
-      </c>
       <c r="ED2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:134" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" t="s">
         <v>233</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>234</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>235</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>236</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>237</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>238</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>239</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>240</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>241</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>242</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>243</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>244</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>245</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>246</v>
       </c>
-      <c r="O3" t="s">
+      <c r="R3" t="s">
         <v>247</v>
       </c>
-      <c r="P3" t="s">
+      <c r="S3" t="s">
         <v>248</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="T3" t="s">
         <v>249</v>
       </c>
-      <c r="R3" t="s">
+      <c r="U3" t="s">
         <v>250</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>251</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>252</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
         <v>253</v>
       </c>
-      <c r="V3" t="s">
+      <c r="Y3" t="s">
         <v>254</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
         <v>255</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>256</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
         <v>257</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AC3" t="s">
         <v>258</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
         <v>259</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AE3" t="s">
         <v>260</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AF3" t="s">
         <v>261</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AG3" t="s">
         <v>262</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AH3" t="s">
         <v>263</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AI3" t="s">
         <v>264</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AJ3" t="s">
         <v>265</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AK3" t="s">
         <v>266</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AL3" t="s">
         <v>267</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AM3" t="s">
         <v>268</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AN3" t="s">
         <v>269</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AO3" t="s">
         <v>270</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AP3" t="s">
         <v>271</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AQ3" t="s">
         <v>272</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AR3" t="s">
         <v>273</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AS3" t="s">
         <v>274</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AT3" t="s">
         <v>275</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AU3" t="s">
         <v>276</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AV3" t="s">
         <v>277</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AW3" t="s">
         <v>278</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AX3" t="s">
         <v>279</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AY3" t="s">
         <v>280</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AZ3" t="s">
         <v>281</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="BA3" t="s">
         <v>282</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="BB3" t="s">
         <v>283</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BC3" t="s">
         <v>284</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BD3" t="s">
         <v>285</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BE3" t="s">
         <v>286</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BF3" t="s">
         <v>287</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BG3" t="s">
         <v>288</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BH3" t="s">
         <v>289</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BI3" t="s">
         <v>290</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BJ3" t="s">
         <v>291</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BK3" t="s">
         <v>292</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BL3" t="s">
         <v>293</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BM3" t="s">
         <v>294</v>
       </c>
-      <c r="BK3" t="s">
+      <c r="BN3" t="s">
         <v>295</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BO3" t="s">
         <v>296</v>
       </c>
-      <c r="BM3" t="s">
+      <c r="BP3" t="s">
         <v>297</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="BQ3" t="s">
         <v>298</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="BR3" t="s">
         <v>299</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="BS3" t="s">
         <v>300</v>
       </c>
-      <c r="BQ3" t="s">
+      <c r="BT3" t="s">
         <v>301</v>
       </c>
-      <c r="BR3" t="s">
+      <c r="BU3" t="s">
         <v>302</v>
       </c>
-      <c r="BS3" t="s">
+      <c r="BV3" t="s">
         <v>303</v>
       </c>
-      <c r="BT3" t="s">
+      <c r="BW3" t="s">
         <v>304</v>
       </c>
-      <c r="BU3" t="s">
+      <c r="BX3" t="s">
         <v>305</v>
       </c>
-      <c r="BV3" t="s">
+      <c r="BY3" t="s">
         <v>306</v>
       </c>
-      <c r="BW3" t="s">
+      <c r="BZ3" t="s">
         <v>307</v>
       </c>
-      <c r="BX3" t="s">
+      <c r="CA3" t="s">
         <v>308</v>
       </c>
-      <c r="BY3" t="s">
+      <c r="CB3" t="s">
         <v>309</v>
       </c>
-      <c r="BZ3" t="s">
+      <c r="CC3" t="s">
         <v>310</v>
       </c>
-      <c r="CA3" t="s">
+      <c r="CD3" t="s">
         <v>311</v>
       </c>
-      <c r="CB3" t="s">
+      <c r="CE3" t="s">
         <v>312</v>
       </c>
-      <c r="CC3" t="s">
+      <c r="CF3" t="s">
         <v>313</v>
       </c>
-      <c r="CD3" t="s">
+      <c r="CG3" t="s">
         <v>314</v>
       </c>
-      <c r="CE3" t="s">
+      <c r="CH3" t="s">
         <v>315</v>
       </c>
-      <c r="CF3" t="s">
+      <c r="CI3" t="s">
         <v>316</v>
       </c>
-      <c r="CG3" t="s">
+      <c r="CJ3" t="s">
         <v>317</v>
       </c>
-      <c r="CH3" t="s">
+      <c r="CK3" t="s">
         <v>318</v>
       </c>
-      <c r="CI3" t="s">
+      <c r="CL3" t="s">
         <v>319</v>
       </c>
-      <c r="CJ3" t="s">
+      <c r="CM3" t="s">
         <v>320</v>
       </c>
-      <c r="CK3" t="s">
+      <c r="CN3" t="s">
         <v>321</v>
       </c>
-      <c r="CL3" t="s">
+      <c r="CO3" t="s">
         <v>322</v>
       </c>
-      <c r="CM3" t="s">
+      <c r="CP3" t="s">
         <v>323</v>
       </c>
-      <c r="CN3" t="s">
+      <c r="CQ3" t="s">
         <v>324</v>
       </c>
-      <c r="CO3" t="s">
+      <c r="CR3" t="s">
         <v>325</v>
       </c>
-      <c r="CP3" t="s">
+      <c r="CS3" t="s">
         <v>326</v>
       </c>
-      <c r="CQ3" t="s">
+      <c r="CT3" t="s">
         <v>327</v>
       </c>
-      <c r="CR3" t="s">
+      <c r="CU3" t="s">
         <v>328</v>
       </c>
-      <c r="CS3" t="s">
+      <c r="CV3" t="s">
         <v>329</v>
       </c>
-      <c r="CT3" t="s">
+      <c r="CW3" t="s">
         <v>330</v>
       </c>
-      <c r="CU3" t="s">
+      <c r="CX3" t="s">
         <v>331</v>
       </c>
-      <c r="CV3" t="s">
+      <c r="CY3" t="s">
         <v>332</v>
       </c>
-      <c r="CW3" t="s">
+      <c r="CZ3" t="s">
         <v>333</v>
       </c>
-      <c r="CX3" t="s">
+      <c r="DA3" t="s">
         <v>334</v>
       </c>
-      <c r="CY3" t="s">
+      <c r="DB3" t="s">
         <v>335</v>
       </c>
-      <c r="CZ3" t="s">
+      <c r="DC3" t="s">
         <v>336</v>
       </c>
-      <c r="DA3" t="s">
+      <c r="DD3" t="s">
         <v>337</v>
       </c>
-      <c r="DB3" t="s">
+      <c r="DE3" t="s">
         <v>338</v>
       </c>
-      <c r="DC3" t="s">
+      <c r="DF3" t="s">
         <v>339</v>
       </c>
-      <c r="DD3" t="s">
+      <c r="DG3" t="s">
         <v>340</v>
       </c>
-      <c r="DE3" t="s">
+      <c r="DH3" t="s">
         <v>341</v>
       </c>
-      <c r="DF3" t="s">
+      <c r="DI3" t="s">
         <v>342</v>
       </c>
-      <c r="DG3" t="s">
+      <c r="DJ3" t="s">
         <v>343</v>
       </c>
-      <c r="DH3" t="s">
+      <c r="DK3" t="s">
         <v>344</v>
       </c>
-      <c r="DI3" t="s">
+      <c r="DL3" t="s">
         <v>345</v>
       </c>
-      <c r="DJ3" t="s">
+      <c r="DM3" t="s">
         <v>346</v>
       </c>
-      <c r="DK3" t="s">
+      <c r="DN3" t="s">
+        <v>275</v>
+      </c>
+      <c r="DO3" t="s">
         <v>347</v>
       </c>
-      <c r="DL3" t="s">
+      <c r="DP3" t="s">
         <v>348</v>
       </c>
-      <c r="DM3" t="s">
+      <c r="DQ3" t="s">
         <v>349</v>
       </c>
-      <c r="DN3" t="s">
-        <v>278</v>
-      </c>
-      <c r="DO3" t="s">
+      <c r="DR3" t="s">
         <v>350</v>
       </c>
-      <c r="DP3" t="s">
+      <c r="DS3" t="s">
         <v>351</v>
       </c>
-      <c r="DQ3" t="s">
+      <c r="DT3" t="s">
         <v>352</v>
       </c>
-      <c r="DR3" t="s">
+      <c r="DU3" t="s">
         <v>353</v>
       </c>
-      <c r="DS3" t="s">
+      <c r="DV3" t="s">
         <v>354</v>
       </c>
-      <c r="DT3" t="s">
+      <c r="DW3" t="s">
         <v>355</v>
       </c>
-      <c r="DU3" t="s">
+      <c r="DX3" t="s">
         <v>356</v>
       </c>
-      <c r="DV3" t="s">
+      <c r="DY3" t="s">
         <v>357</v>
       </c>
-      <c r="DW3" t="s">
+      <c r="DZ3" t="s">
         <v>358</v>
       </c>
-      <c r="DX3" t="s">
+      <c r="EA3" t="s">
         <v>359</v>
       </c>
-      <c r="DY3" t="s">
+      <c r="EB3" t="s">
         <v>360</v>
       </c>
-      <c r="DZ3" t="s">
+      <c r="EC3" t="s">
         <v>361</v>
       </c>
-      <c r="EA3" t="s">
+      <c r="ED3" t="s">
         <v>362</v>
-      </c>
-      <c r="EB3" t="s">
-        <v>363</v>
-      </c>
-      <c r="EC3" t="s">
-        <v>364</v>
-      </c>
-      <c r="ED3" t="s">
-        <v>365</v>
       </c>
     </row>
   </sheetData>
